--- a/sql/erd.xlsx
+++ b/sql/erd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\bootcamp\git\moldova\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D91C895-5F5E-4D01-B865-6B2B21337D97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A49D26A-81A3-49F6-9E1D-FF2DCCF5BFB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>destination</t>
   </si>
@@ -36,12 +36,6 @@
     <t>destinationDescription</t>
   </si>
   <si>
-    <t>destinationImageUrl</t>
-  </si>
-  <si>
-    <t>tradition</t>
-  </si>
-  <si>
     <t>traditionTitle</t>
   </si>
   <si>
@@ -63,43 +57,52 @@
     <t>foodImageUrl</t>
   </si>
   <si>
-    <t>county</t>
-  </si>
-  <si>
-    <t>countyName</t>
-  </si>
-  <si>
-    <t>destinationCountyId (FK)</t>
-  </si>
-  <si>
-    <t>countyId (PK)</t>
-  </si>
-  <si>
     <t>destinationId(PK)</t>
   </si>
   <si>
     <t>traditionId(PK)</t>
   </si>
   <si>
-    <t>traditionCountyId(FK)</t>
-  </si>
-  <si>
-    <t>foodCountyId (FK)</t>
-  </si>
-  <si>
     <t>foodId(PK)</t>
   </si>
   <si>
-    <t>foodTradition</t>
-  </si>
-  <si>
-    <t>foodTraditionFoodId (FK)</t>
-  </si>
-  <si>
-    <t>foodTraditionTradtionId (FK)</t>
-  </si>
-  <si>
-    <t>s</t>
+    <t>traditionsFestival</t>
+  </si>
+  <si>
+    <t>profil</t>
+  </si>
+  <si>
+    <t>profilId (PK)</t>
+  </si>
+  <si>
+    <t>profilName</t>
+  </si>
+  <si>
+    <t>profilActivationToken</t>
+  </si>
+  <si>
+    <t>foodProfilId(FK)</t>
+  </si>
+  <si>
+    <t>traditionprofilId (FK)</t>
+  </si>
+  <si>
+    <t>destinationContact</t>
+  </si>
+  <si>
+    <t>destinationLocation</t>
+  </si>
+  <si>
+    <t>destinationImageSrc</t>
+  </si>
+  <si>
+    <t>profileHandle</t>
+  </si>
+  <si>
+    <t>profileName</t>
+  </si>
+  <si>
+    <t>destinationProfileId FK</t>
   </si>
 </sst>
 </file>
@@ -178,11 +181,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -202,67 +209,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>244395</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>168300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Connector 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C24CF030-236E-4F5F-B754-F5D80B3B7AC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6730920" y="723900"/>
-          <a:ext cx="3622755" cy="25425"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="E71224">
-            <a:alpha val="75000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="36000">
-          <a:solidFill>
-            <a:srgbClr val="E71224"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -326,23 +272,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>120675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>568247</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Connector 20">
+        <xdr:cNvPr id="3" name="Straight Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B15E99-4F26-49BE-9883-2B0FB468FA60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59630F2B-379F-4F5C-BEEC-6EE01F9F104A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -350,8 +296,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4562475" y="1104900"/>
-          <a:ext cx="1114425" cy="847725"/>
+          <a:off x="3409950" y="892200"/>
+          <a:ext cx="1720772" cy="1022325"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -387,23 +333,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Connector 27">
+        <xdr:cNvPr id="5" name="Straight Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE0778C1-385D-4827-B9E8-2839ECC6B95E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A68F288-1E68-4760-BF05-CC5356758E6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -411,69 +357,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4638675" y="2457450"/>
-          <a:ext cx="2381250" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="E71224">
-            <a:alpha val="75000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="36000">
-          <a:solidFill>
-            <a:srgbClr val="E71224"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Connector 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95B7D24-0D1B-4505-8348-C84E35964ACF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8753476" y="981075"/>
-          <a:ext cx="1447799" cy="1619250"/>
+          <a:off x="6143625" y="1714500"/>
+          <a:ext cx="9525" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -773,121 +658,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L17"/>
+  <dimension ref="B2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="27.5703125" customWidth="1"/>
     <col min="12" max="12" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
